--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -12,12 +12,11 @@
     <sheet name="test_suite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>firstName</t>
   </si>
@@ -77,9 +76,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>runmode</t>
@@ -442,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -476,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>firstName</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>runmode</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
